--- a/Letopis 2020/Materials for letopis/Мидиевые банки промежуточная набивка/Mussel_and_algae_biomass_1996_2020.xlsx
+++ b/Letopis 2020/Materials for letopis/Мидиевые банки промежуточная набивка/Mussel_and_algae_biomass_1996_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mussel algae biomass 2019 2020" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="414">
   <si>
     <t>Bank</t>
   </si>
@@ -1219,6 +1219,42 @@
     <t>2.214</t>
   </si>
   <si>
+    <t>6.137</t>
+  </si>
+  <si>
+    <t>2.987</t>
+  </si>
+  <si>
+    <t>1.474</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>2.239</t>
+  </si>
+  <si>
+    <t>1.214</t>
+  </si>
+  <si>
+    <t>3.325</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>2.844</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
     <t>Mussel</t>
   </si>
   <si>
@@ -1230,14 +1266,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,11 +1286,6 @@
       <color theme="1"/>
       <name val="Liberation Sans"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1292,6 +1323,136 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Baltica"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1306,136 +1467,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Baltica"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1453,7 +1484,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,13 +1610,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,97 +1646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,49 +1664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,24 +1696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1698,17 +1711,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,58 +1769,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1822,101 +1856,98 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1929,48 +1960,48 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="54" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="47" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="33"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="33" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="33" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="33"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="33" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="33" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3311,10 +3342,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E838"/>
+  <dimension ref="A1:E867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A813" workbookViewId="0">
-      <selection activeCell="K825" sqref="K824:K825"/>
+    <sheetView topLeftCell="A842" workbookViewId="0">
+      <selection activeCell="E868" sqref="E868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -17624,6 +17655,456 @@
       <c r="E838">
         <f>62.195+1.53</f>
         <v>63.725</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B839" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C839" t="s">
+        <v>12</v>
+      </c>
+      <c r="D839">
+        <v>5</v>
+      </c>
+      <c r="E839">
+        <f>89.886+2.712</f>
+        <v>92.598</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C840" t="s">
+        <v>12</v>
+      </c>
+      <c r="D840">
+        <v>4</v>
+      </c>
+      <c r="E840">
+        <f>69.093+0.887</f>
+        <v>69.98</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="A841" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B841" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C841" t="s">
+        <v>12</v>
+      </c>
+      <c r="D841">
+        <v>2</v>
+      </c>
+      <c r="E841">
+        <f>99.364+1.659</f>
+        <v>101.023</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C842" t="s">
+        <v>12</v>
+      </c>
+      <c r="D842">
+        <v>5</v>
+      </c>
+      <c r="E842">
+        <f>36.939</f>
+        <v>36.939</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="A843" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B843" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C843" t="s">
+        <v>12</v>
+      </c>
+      <c r="D843">
+        <v>2</v>
+      </c>
+      <c r="E843">
+        <f>56.173+3.257</f>
+        <v>59.43</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="A844" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D844">
+        <v>3</v>
+      </c>
+      <c r="E844">
+        <f>22.055+2.549</f>
+        <v>24.604</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B845" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D845">
+        <v>4</v>
+      </c>
+      <c r="E845">
+        <f>68.392+2.885</f>
+        <v>71.277</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B846" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D846">
+        <v>6</v>
+      </c>
+      <c r="E846">
+        <f>78.806+2.832</f>
+        <v>81.638</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5">
+      <c r="A847" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D847">
+        <v>1</v>
+      </c>
+      <c r="E847">
+        <f>54.198+1.566</f>
+        <v>55.764</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B848" t="s">
+        <v>4</v>
+      </c>
+      <c r="D848">
+        <v>1</v>
+      </c>
+      <c r="E848">
+        <f>34.304+0.056</f>
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="A849" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B849" t="s">
+        <v>4</v>
+      </c>
+      <c r="D849">
+        <v>5</v>
+      </c>
+      <c r="E849">
+        <f>45.366+1.11</f>
+        <v>46.476</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5">
+      <c r="A850" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B850" t="s">
+        <v>4</v>
+      </c>
+      <c r="D850">
+        <v>4</v>
+      </c>
+      <c r="E850">
+        <f>57.199+2.366</f>
+        <v>59.565</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B851" t="s">
+        <v>4</v>
+      </c>
+      <c r="D851">
+        <v>3</v>
+      </c>
+      <c r="E851">
+        <f>44.018+2.786</f>
+        <v>46.804</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5">
+      <c r="A852" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B852" t="s">
+        <v>4</v>
+      </c>
+      <c r="D852">
+        <v>2</v>
+      </c>
+      <c r="E852">
+        <f>39.05+2.671</f>
+        <v>41.721</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5">
+      <c r="A853" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B853" t="s">
+        <v>4</v>
+      </c>
+      <c r="D853">
+        <v>6</v>
+      </c>
+      <c r="E853">
+        <f>34.97+4.783</f>
+        <v>39.753</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B854" t="s">
+        <v>4</v>
+      </c>
+      <c r="D854">
+        <v>11</v>
+      </c>
+      <c r="E854">
+        <f>65.215+0.791</f>
+        <v>66.006</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B855" t="s">
+        <v>4</v>
+      </c>
+      <c r="D855">
+        <v>9</v>
+      </c>
+      <c r="E855">
+        <f>95.672+0.54</f>
+        <v>96.212</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B856" t="s">
+        <v>4</v>
+      </c>
+      <c r="D856">
+        <v>8</v>
+      </c>
+      <c r="E856">
+        <f>63.417+1.222</f>
+        <v>64.639</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B857" t="s">
+        <v>4</v>
+      </c>
+      <c r="D857">
+        <v>10</v>
+      </c>
+      <c r="E857">
+        <f>60.816+0.33</f>
+        <v>61.146</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B858" t="s">
+        <v>4</v>
+      </c>
+      <c r="D858">
+        <v>12</v>
+      </c>
+      <c r="E858">
+        <f>58.39+0.842</f>
+        <v>59.232</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B859" t="s">
+        <v>4</v>
+      </c>
+      <c r="D859">
+        <v>7</v>
+      </c>
+      <c r="E859">
+        <f>62.411+0.248</f>
+        <v>62.659</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860">
+        <v>2017</v>
+      </c>
+      <c r="B860" t="s">
+        <v>7</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+      <c r="E860">
+        <f>67.321+2.341</f>
+        <v>69.662</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861">
+        <v>2017</v>
+      </c>
+      <c r="B861" t="s">
+        <v>7</v>
+      </c>
+      <c r="D861">
+        <v>3</v>
+      </c>
+      <c r="E861">
+        <f>48.702+4.439+2.178</f>
+        <v>55.319</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862">
+        <v>2017</v>
+      </c>
+      <c r="B862" t="s">
+        <v>7</v>
+      </c>
+      <c r="D862">
+        <v>2</v>
+      </c>
+      <c r="E862">
+        <f>51.31+2.96+1.831</f>
+        <v>56.101</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863">
+        <v>2017</v>
+      </c>
+      <c r="B863" t="s">
+        <v>7</v>
+      </c>
+      <c r="D863">
+        <v>5</v>
+      </c>
+      <c r="E863">
+        <f>1.597+64.902</f>
+        <v>66.499</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864">
+        <v>2017</v>
+      </c>
+      <c r="B864" t="s">
+        <v>6</v>
+      </c>
+      <c r="D864">
+        <v>4</v>
+      </c>
+      <c r="E864">
+        <f>75.348+1.061</f>
+        <v>76.409</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865">
+        <v>2017</v>
+      </c>
+      <c r="B865" t="s">
+        <v>6</v>
+      </c>
+      <c r="D865">
+        <v>2</v>
+      </c>
+      <c r="E865">
+        <f>53.806+0.556</f>
+        <v>54.362</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866">
+        <v>2017</v>
+      </c>
+      <c r="B866" t="s">
+        <v>7</v>
+      </c>
+      <c r="D866">
+        <v>6</v>
+      </c>
+      <c r="E866">
+        <f>1.309+4.645+46.282</f>
+        <v>52.236</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867">
+        <v>2017</v>
+      </c>
+      <c r="B867" t="s">
+        <v>6</v>
+      </c>
+      <c r="D867">
+        <v>6</v>
+      </c>
+      <c r="E867">
+        <f>1.323+51.857</f>
+        <v>53.18</v>
       </c>
     </row>
   </sheetData>
@@ -17635,10 +18116,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D576"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
-    <sheetView topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="C576" sqref="C576"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="C606" sqref="C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -25706,6 +26187,405 @@
         <v>6</v>
       </c>
       <c r="D576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577">
+        <v>2017</v>
+      </c>
+      <c r="B577" t="s">
+        <v>5</v>
+      </c>
+      <c r="C577">
+        <v>5</v>
+      </c>
+      <c r="D577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578">
+        <v>2017</v>
+      </c>
+      <c r="B578" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578">
+        <v>4</v>
+      </c>
+      <c r="D578" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579">
+        <v>2017</v>
+      </c>
+      <c r="B579" t="s">
+        <v>5</v>
+      </c>
+      <c r="C579">
+        <v>2</v>
+      </c>
+      <c r="D579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580">
+        <v>2017</v>
+      </c>
+      <c r="B580" t="s">
+        <v>8</v>
+      </c>
+      <c r="C580">
+        <v>5</v>
+      </c>
+      <c r="D580" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581">
+        <v>2017</v>
+      </c>
+      <c r="B581" t="s">
+        <v>8</v>
+      </c>
+      <c r="C581">
+        <v>2</v>
+      </c>
+      <c r="D581" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582">
+        <v>2017</v>
+      </c>
+      <c r="B582" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582">
+        <v>3</v>
+      </c>
+      <c r="D582" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583">
+        <v>2017</v>
+      </c>
+      <c r="B583" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583">
+        <v>4</v>
+      </c>
+      <c r="D583" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584">
+        <v>2017</v>
+      </c>
+      <c r="B584" t="s">
+        <v>8</v>
+      </c>
+      <c r="C584">
+        <v>6</v>
+      </c>
+      <c r="D584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585">
+        <v>2017</v>
+      </c>
+      <c r="B585" t="s">
+        <v>8</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586">
+        <v>2017</v>
+      </c>
+      <c r="B586" t="s">
+        <v>4</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587">
+        <v>2017</v>
+      </c>
+      <c r="B587" t="s">
+        <v>4</v>
+      </c>
+      <c r="C587">
+        <v>5</v>
+      </c>
+      <c r="D587" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588">
+        <v>2017</v>
+      </c>
+      <c r="B588" t="s">
+        <v>4</v>
+      </c>
+      <c r="C588">
+        <v>4</v>
+      </c>
+      <c r="D588" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589">
+        <v>2017</v>
+      </c>
+      <c r="B589" t="s">
+        <v>4</v>
+      </c>
+      <c r="C589">
+        <v>3</v>
+      </c>
+      <c r="D589" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590">
+        <v>2017</v>
+      </c>
+      <c r="B590" t="s">
+        <v>4</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+      <c r="D590">
+        <f>0.509+0.626</f>
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591">
+        <v>2017</v>
+      </c>
+      <c r="B591" t="s">
+        <v>4</v>
+      </c>
+      <c r="C591">
+        <v>6</v>
+      </c>
+      <c r="D591">
+        <f>1.031</f>
+        <v>1.031</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592">
+        <v>2017</v>
+      </c>
+      <c r="B592" t="s">
+        <v>4</v>
+      </c>
+      <c r="C592">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593">
+        <v>2017</v>
+      </c>
+      <c r="B593" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594">
+        <v>2017</v>
+      </c>
+      <c r="B594" t="s">
+        <v>4</v>
+      </c>
+      <c r="C594">
+        <v>8</v>
+      </c>
+      <c r="D594" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595">
+        <v>2017</v>
+      </c>
+      <c r="B595" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595">
+        <v>10</v>
+      </c>
+      <c r="D595" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596">
+        <v>2017</v>
+      </c>
+      <c r="B596" t="s">
+        <v>4</v>
+      </c>
+      <c r="C596">
+        <v>12</v>
+      </c>
+      <c r="D596" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597">
+        <v>2017</v>
+      </c>
+      <c r="B597" t="s">
+        <v>4</v>
+      </c>
+      <c r="C597">
+        <v>7</v>
+      </c>
+      <c r="D597" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598">
+        <v>2017</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599">
+        <v>2017</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+      <c r="C599">
+        <v>3</v>
+      </c>
+      <c r="D599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600">
+        <v>2017</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600">
+        <v>2</v>
+      </c>
+      <c r="D600" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601">
+        <v>2017</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+      <c r="C601">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602">
+        <v>2017</v>
+      </c>
+      <c r="B602" t="s">
+        <v>6</v>
+      </c>
+      <c r="C602">
+        <v>4</v>
+      </c>
+      <c r="D602" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603">
+        <v>2017</v>
+      </c>
+      <c r="B603" t="s">
+        <v>6</v>
+      </c>
+      <c r="C603">
+        <v>2</v>
+      </c>
+      <c r="D603" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604">
+        <v>2017</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+      <c r="C604">
+        <v>6</v>
+      </c>
+      <c r="D604" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605">
+        <v>2017</v>
+      </c>
+      <c r="B605" t="s">
+        <v>6</v>
+      </c>
+      <c r="C605">
+        <v>6</v>
+      </c>
+      <c r="D605">
         <v>0</v>
       </c>
     </row>
@@ -25720,7 +26600,7 @@
   <sheetPr/>
   <dimension ref="A1:D1240"/>
   <sheetViews>
-    <sheetView topLeftCell="A1189" workbookViewId="0">
+    <sheetView topLeftCell="A1228" workbookViewId="0">
       <selection activeCell="D1183" sqref="D1183"/>
     </sheetView>
   </sheetViews>
@@ -25734,10 +26614,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:4">
